--- a/EstudoDeViabilidade_MCS_2024.xlsx
+++ b/EstudoDeViabilidade_MCS_2024.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\discente\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{558354DA-B71B-4E23-911C-042DBA31067A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C8994A-7F82-475B-A949-25444D7D35B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{51E140F6-FF6E-4290-BACC-BC11F8B776CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Prazo" sheetId="1" r:id="rId1"/>
-    <sheet name="Custo" sheetId="2" r:id="rId2"/>
+    <sheet name="Custo" sheetId="4" r:id="rId2"/>
     <sheet name="Técnica" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="71">
   <si>
     <t>Estudo de Viabilidade</t>
   </si>
@@ -56,21 +56,6 @@
     <t>Fev</t>
   </si>
   <si>
-    <t>Gustavo</t>
-  </si>
-  <si>
-    <t>Isabella</t>
-  </si>
-  <si>
-    <t>Julia</t>
-  </si>
-  <si>
-    <t>Ícaro</t>
-  </si>
-  <si>
-    <t>Maria</t>
-  </si>
-  <si>
     <t>Total de Horas</t>
   </si>
   <si>
@@ -125,9 +110,6 @@
     <t>Sub-total</t>
   </si>
   <si>
-    <t>Bônus</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -149,9 +131,6 @@
     <t>Custo - 9 Meses</t>
   </si>
   <si>
-    <t>Custos Fixos</t>
-  </si>
-  <si>
     <t>Despesas</t>
   </si>
   <si>
@@ -170,21 +149,9 @@
     <t>Transporte</t>
   </si>
   <si>
-    <t>Cursos*</t>
-  </si>
-  <si>
-    <t>Notebooks**</t>
-  </si>
-  <si>
     <t>Outras</t>
   </si>
   <si>
-    <t>* O foram comprados dois cursos online: um de Flutter e outro de Python.</t>
-  </si>
-  <si>
-    <t>** Foram alugados cinco notebooks para a equipe.</t>
-  </si>
-  <si>
     <t>Total dos custos do Projeto:</t>
   </si>
   <si>
@@ -233,16 +200,46 @@
     <t>Pedro L.</t>
   </si>
   <si>
-    <t>Kotlin | AS</t>
-  </si>
-  <si>
     <t>Guilherme V.</t>
   </si>
   <si>
     <t>Figma | Kotlin</t>
   </si>
   <si>
-    <t>João A.</t>
+    <t>Kotlin | AS | Word</t>
+  </si>
+  <si>
+    <t>Total Mensal</t>
+  </si>
+  <si>
+    <t>9 Meses</t>
+  </si>
+  <si>
+    <t>Total dos Custos com Pessoal</t>
+  </si>
+  <si>
+    <t>*** Foram alugados cinco notebooks para a equipe.</t>
+  </si>
+  <si>
+    <t>* *O foram comprados dois cursos online: um de Flutter e outro de Python.</t>
+  </si>
+  <si>
+    <t>* Os Custos Fixos correspondem ao total de horas trabalhadas dos 5 membros da equipe e equivale a 1,3 mês de trabalho. Sendo 5 dias de 40 horas por semana. Então a estrura física será necessária apenas dois mêses</t>
+  </si>
+  <si>
+    <t>Notebooks***</t>
+  </si>
+  <si>
+    <t>Cursos**</t>
+  </si>
+  <si>
+    <t>Custos Fixos*</t>
+  </si>
+  <si>
+    <t>Pedro Lourenço</t>
+  </si>
+  <si>
+    <t>Guilherme Vieira</t>
   </si>
 </sst>
 </file>
@@ -253,7 +250,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,6 +295,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -331,7 +336,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -483,12 +488,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -552,13 +577,7 @@
     <xf numFmtId="44" fontId="1" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -572,6 +591,9 @@
     <xf numFmtId="164" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -616,6 +638,59 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -934,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A53AC3-4689-49D9-AFB1-A94F1B448C1A}">
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -949,24 +1024,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
@@ -989,115 +1064,115 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="33">
-        <v>6</v>
-      </c>
-      <c r="D5" s="33">
-        <v>3</v>
-      </c>
-      <c r="E5" s="33">
+      <c r="B5" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="29">
+        <v>2</v>
+      </c>
+      <c r="D5" s="29">
+        <v>3</v>
+      </c>
+      <c r="E5" s="29">
         <f>SUM(C5:D5)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F5" s="3">
         <f>E5*4.5</f>
-        <v>40.5</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="35"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C6" s="3">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="D6" s="3">
         <v>3</v>
       </c>
       <c r="E6" s="3">
         <f>SUM(C6:D6)</f>
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" ref="F6:F9" si="0">E6*4.5</f>
-        <v>40.5</v>
+        <v>20.25</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="35"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C7" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" s="3">
         <v>3</v>
       </c>
       <c r="E7" s="3">
         <f>SUM(C7:D7)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="0"/>
-        <v>31.5</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="35"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="C8" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" s="3">
         <v>3</v>
       </c>
       <c r="E8" s="3">
         <f>SUM(C8:D8)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>31.5</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="35"/>
-      <c r="B9" s="31" t="s">
-        <v>13</v>
+      <c r="A9" s="32"/>
+      <c r="B9" s="27" t="s">
+        <v>69</v>
       </c>
       <c r="C9" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="3">
         <v>3</v>
       </c>
       <c r="E9" s="5">
         <f>SUM(C9:D9)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="0"/>
-        <v>31.5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="36"/>
+      <c r="A10" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="33"/>
       <c r="C10" s="11">
         <f>SUM(C5:C9)</f>
-        <v>24</v>
+        <v>10.5</v>
       </c>
       <c r="D10" s="11">
         <f>SUM(D5:D9)</f>
@@ -1105,11 +1180,11 @@
       </c>
       <c r="E10" s="11">
         <f>SUM(E5:E9)</f>
-        <v>39</v>
+        <v>25.5</v>
       </c>
       <c r="F10" s="11">
         <f>SUM(F5:F9)</f>
-        <v>175.5</v>
+        <v>114.75</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -1123,7 +1198,7 @@
       <c r="A12" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="31" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -1140,115 +1215,115 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="33">
+      <c r="A13" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="29">
+        <v>2</v>
+      </c>
+      <c r="D13" s="29">
+        <v>3</v>
+      </c>
+      <c r="E13" s="29">
+        <f>SUM(C13:D13)</f>
         <v>5</v>
-      </c>
-      <c r="D13" s="33">
-        <v>3</v>
-      </c>
-      <c r="E13" s="33">
-        <f>SUM(C13:D13)</f>
-        <v>8</v>
       </c>
       <c r="F13" s="3">
         <f>E13*4.5</f>
-        <v>36</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="35"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="2" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C14" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D14" s="3">
         <v>3</v>
       </c>
       <c r="E14" s="3">
         <f>SUM(C14:D14)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" ref="F14:F17" si="1">E14*4.5</f>
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="35"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="2" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C15" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" s="3">
         <v>3</v>
       </c>
       <c r="E15" s="3">
         <f>SUM(C15:D15)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="35"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="2" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="C16" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" s="3">
         <v>3</v>
       </c>
       <c r="E16" s="3">
         <f>SUM(C16:D16)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="35"/>
-      <c r="B17" s="31" t="s">
-        <v>13</v>
+      <c r="A17" s="32"/>
+      <c r="B17" s="27" t="s">
+        <v>69</v>
       </c>
       <c r="C17" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" s="3">
         <v>3</v>
       </c>
       <c r="E17" s="5">
         <f>SUM(C17:D17)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" si="1"/>
-        <v>22.5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="36"/>
+      <c r="A18" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="33"/>
       <c r="C18" s="11">
         <f>SUM(C13:C17)</f>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D18" s="11">
         <f>SUM(D13:D17)</f>
@@ -1256,11 +1331,11 @@
       </c>
       <c r="E18" s="11">
         <f>SUM(E13:E17)</f>
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F18" s="11">
         <f>SUM(F13:F17)</f>
-        <v>148.5</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -1274,7 +1349,7 @@
       <c r="A20" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="31" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="11" t="s">
@@ -1291,115 +1366,115 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="33">
-        <v>5</v>
-      </c>
-      <c r="D21" s="33">
-        <v>3</v>
-      </c>
-      <c r="E21" s="33">
+      <c r="A21" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="29">
+        <v>3</v>
+      </c>
+      <c r="D21" s="29">
+        <v>3</v>
+      </c>
+      <c r="E21" s="29">
         <f>SUM(C21:D21)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F21" s="3">
         <f>E21*4.5</f>
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="35"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="2" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C22" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" s="3">
         <v>3</v>
       </c>
       <c r="E22" s="3">
         <f>SUM(C22:D22)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" ref="F22:F25" si="2">E22*4.5</f>
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="35"/>
+      <c r="A23" s="32"/>
       <c r="B23" s="2" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C23" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D23" s="3">
         <v>3</v>
       </c>
       <c r="E23" s="3">
         <f>SUM(C23:D23)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" si="2"/>
-        <v>40.5</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="35"/>
+      <c r="A24" s="32"/>
       <c r="B24" s="2" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="C24" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D24" s="3">
         <v>3</v>
       </c>
       <c r="E24" s="3">
         <f>SUM(C24:D24)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="2"/>
-        <v>40.5</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="35"/>
-      <c r="B25" s="31" t="s">
-        <v>13</v>
+      <c r="A25" s="32"/>
+      <c r="B25" s="27" t="s">
+        <v>69</v>
       </c>
       <c r="C25" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" s="3">
         <v>3</v>
       </c>
       <c r="E25" s="5">
         <f>SUM(C25:D25)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" si="2"/>
-        <v>31.5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="36"/>
+      <c r="A26" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="33"/>
       <c r="C26" s="11">
         <f>SUM(C21:C25)</f>
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D26" s="11">
         <f>SUM(D21:D25)</f>
@@ -1407,11 +1482,11 @@
       </c>
       <c r="E26" s="11">
         <f>SUM(E21:E25)</f>
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F26" s="11">
         <f>SUM(F21:F25)</f>
-        <v>184.5</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -1425,7 +1500,7 @@
       <c r="A28" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="31" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="11" t="s">
@@ -1442,19 +1517,19 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="33">
-        <v>3</v>
-      </c>
-      <c r="D29" s="33">
-        <v>3</v>
-      </c>
-      <c r="E29" s="33">
+      <c r="A29" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="29">
+        <v>3</v>
+      </c>
+      <c r="D29" s="29">
+        <v>3</v>
+      </c>
+      <c r="E29" s="29">
         <f>SUM(C29:D29)</f>
         <v>6</v>
       </c>
@@ -1464,9 +1539,9 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="35"/>
+      <c r="A30" s="32"/>
       <c r="B30" s="2" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C30" s="3">
         <v>3</v>
@@ -1484,73 +1559,73 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="35"/>
+      <c r="A31" s="32"/>
       <c r="B31" s="2" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C31" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D31" s="3">
         <v>3</v>
       </c>
       <c r="E31" s="3">
         <f>SUM(C31:D31)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F31" s="3">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="35"/>
+      <c r="A32" s="32"/>
       <c r="B32" s="2" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="C32" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D32" s="3">
         <v>3</v>
       </c>
       <c r="E32" s="3">
         <f>SUM(C32:D32)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F32" s="3">
         <f t="shared" si="3"/>
-        <v>40.5</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="35"/>
-      <c r="B33" s="31" t="s">
-        <v>13</v>
+      <c r="A33" s="32"/>
+      <c r="B33" s="27" t="s">
+        <v>69</v>
       </c>
       <c r="C33" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D33" s="3">
         <v>3</v>
       </c>
       <c r="E33" s="5">
         <f>SUM(C33:D33)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F33" s="3">
         <f t="shared" si="3"/>
-        <v>40.5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" s="36"/>
+      <c r="A34" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="33"/>
       <c r="C34" s="11">
         <f>SUM(C29:C33)</f>
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D34" s="11">
         <f>SUM(D29:D33)</f>
@@ -1558,11 +1633,11 @@
       </c>
       <c r="E34" s="11">
         <f>SUM(E29:E33)</f>
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F34" s="11">
         <f>SUM(F29:F33)</f>
-        <v>171</v>
+        <v>121.5</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
@@ -1576,7 +1651,7 @@
       <c r="A36" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="31" t="s">
         <v>3</v>
       </c>
       <c r="C36" s="11" t="s">
@@ -1593,91 +1668,91 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="33">
-        <v>4</v>
-      </c>
-      <c r="D37" s="33">
-        <v>3</v>
-      </c>
-      <c r="E37" s="33">
+      <c r="A37" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="29">
+        <v>5</v>
+      </c>
+      <c r="D37" s="29">
+        <v>3</v>
+      </c>
+      <c r="E37" s="29">
         <f>SUM(C37:D37)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F37" s="3">
         <f>E37*4.5</f>
-        <v>31.5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="35"/>
+      <c r="A38" s="32"/>
       <c r="B38" s="2" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C38" s="3">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="D38" s="3">
         <v>3</v>
       </c>
       <c r="E38" s="3">
         <f>SUM(C38:D38)</f>
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="F38" s="3">
         <f t="shared" ref="F38:F41" si="4">E38*4.5</f>
-        <v>36</v>
+        <v>33.75</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="35"/>
+      <c r="A39" s="32"/>
       <c r="B39" s="2" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C39" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" s="3">
         <v>3</v>
       </c>
       <c r="E39" s="3">
         <f>SUM(C39:D39)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F39" s="3">
         <f t="shared" si="4"/>
-        <v>22.5</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="35"/>
+      <c r="A40" s="32"/>
       <c r="B40" s="2" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="C40" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D40" s="3">
         <v>3</v>
       </c>
       <c r="E40" s="3">
         <f>SUM(C40:D40)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F40" s="3">
         <f t="shared" si="4"/>
-        <v>27</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="35"/>
-      <c r="B41" s="31" t="s">
-        <v>13</v>
+      <c r="A41" s="32"/>
+      <c r="B41" s="27" t="s">
+        <v>69</v>
       </c>
       <c r="C41" s="5">
         <v>4</v>
@@ -1695,13 +1770,13 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" s="36"/>
+      <c r="A42" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="33"/>
       <c r="C42" s="11">
         <f>SUM(C37:C41)</f>
-        <v>18</v>
+        <v>23.5</v>
       </c>
       <c r="D42" s="11">
         <f>SUM(D37:D41)</f>
@@ -1709,11 +1784,11 @@
       </c>
       <c r="E42" s="11">
         <f>SUM(E37:E41)</f>
-        <v>33</v>
+        <v>38.5</v>
       </c>
       <c r="F42" s="11">
         <f>SUM(F37:F41)</f>
-        <v>148.5</v>
+        <v>173.25</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
@@ -1727,7 +1802,7 @@
       <c r="A44" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="31" t="s">
         <v>3</v>
       </c>
       <c r="C44" s="11" t="s">
@@ -1744,51 +1819,51 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="B45" s="32" t="s">
+      <c r="A45" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="29">
+        <v>6</v>
+      </c>
+      <c r="D45" s="29">
+        <v>3</v>
+      </c>
+      <c r="E45" s="29">
+        <f>SUM(C45:D45)</f>
         <v>9</v>
-      </c>
-      <c r="C45" s="33">
-        <v>4</v>
-      </c>
-      <c r="D45" s="33">
-        <v>3</v>
-      </c>
-      <c r="E45" s="33">
-        <f>SUM(C45:D45)</f>
-        <v>7</v>
       </c>
       <c r="F45" s="3">
         <f>E45*4.5</f>
-        <v>31.5</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="35"/>
+      <c r="A46" s="32"/>
       <c r="B46" s="2" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C46" s="3">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="D46" s="3">
         <v>3</v>
       </c>
       <c r="E46" s="3">
         <f>SUM(C46:D46)</f>
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="F46" s="3">
         <f t="shared" ref="F46:F49" si="5">E46*4.5</f>
-        <v>36</v>
+        <v>33.75</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="35"/>
+      <c r="A47" s="32"/>
       <c r="B47" s="2" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C47" s="3">
         <v>4</v>
@@ -1806,53 +1881,53 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="35"/>
+      <c r="A48" s="32"/>
       <c r="B48" s="2" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="C48" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D48" s="3">
         <v>3</v>
       </c>
       <c r="E48" s="3">
         <f>SUM(C48:D48)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F48" s="3">
         <f t="shared" si="5"/>
-        <v>31.5</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="35"/>
-      <c r="B49" s="31" t="s">
-        <v>13</v>
+      <c r="A49" s="32"/>
+      <c r="B49" s="27" t="s">
+        <v>69</v>
       </c>
       <c r="C49" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" s="3">
         <v>3</v>
       </c>
       <c r="E49" s="5">
         <f>SUM(C49:D49)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F49" s="3">
         <f t="shared" si="5"/>
-        <v>36</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B50" s="36"/>
+      <c r="A50" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="33"/>
       <c r="C50" s="11">
         <f>SUM(C45:C49)</f>
-        <v>22</v>
+        <v>24.5</v>
       </c>
       <c r="D50" s="11">
         <f>SUM(D45:D49)</f>
@@ -1860,11 +1935,11 @@
       </c>
       <c r="E50" s="11">
         <f>SUM(E45:E49)</f>
-        <v>37</v>
+        <v>39.5</v>
       </c>
       <c r="F50" s="11">
         <f>SUM(F45:F49)</f>
-        <v>166.5</v>
+        <v>177.75</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
@@ -1878,10 +1953,10 @@
       <c r="A52" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" s="11" t="s">
+      <c r="B52" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="31" t="s">
         <v>4</v>
       </c>
       <c r="D52" s="11" t="s">
@@ -1895,91 +1970,91 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="B53" s="32" t="s">
+      <c r="A53" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="29">
+        <v>6</v>
+      </c>
+      <c r="D53" s="29">
+        <v>3</v>
+      </c>
+      <c r="E53" s="29">
+        <f>SUM(C53:D53)</f>
         <v>9</v>
-      </c>
-      <c r="C53" s="33">
-        <v>7</v>
-      </c>
-      <c r="D53" s="33">
-        <v>3</v>
-      </c>
-      <c r="E53" s="33">
-        <f>SUM(C53:D53)</f>
-        <v>10</v>
       </c>
       <c r="F53" s="3">
         <f>E53*4.5</f>
-        <v>45</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="35"/>
+      <c r="A54" s="32"/>
       <c r="B54" s="2" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C54" s="3">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D54" s="3">
         <v>3</v>
       </c>
       <c r="E54" s="3">
         <f>SUM(C54:D54)</f>
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="F54" s="3">
         <f t="shared" ref="F54:F57" si="6">E54*4.5</f>
-        <v>31.5</v>
+        <v>33.75</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="35"/>
+      <c r="A55" s="32"/>
       <c r="B55" s="2" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C55" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D55" s="3">
         <v>3</v>
       </c>
       <c r="E55" s="3">
         <f>SUM(C55:D55)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F55" s="3">
         <f t="shared" si="6"/>
-        <v>40.5</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="35"/>
+      <c r="A56" s="32"/>
       <c r="B56" s="2" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="C56" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D56" s="3">
         <v>3</v>
       </c>
       <c r="E56" s="3">
         <f>SUM(C56:D56)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F56" s="3">
         <f t="shared" si="6"/>
-        <v>36</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="35"/>
-      <c r="B57" s="31" t="s">
-        <v>13</v>
+      <c r="A57" s="32"/>
+      <c r="B57" s="27" t="s">
+        <v>69</v>
       </c>
       <c r="C57" s="5">
         <v>4</v>
@@ -1997,13 +2072,13 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B58" s="36"/>
+      <c r="A58" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="33"/>
       <c r="C58" s="11">
         <f>SUM(C53:C57)</f>
-        <v>26</v>
+        <v>24.5</v>
       </c>
       <c r="D58" s="11">
         <f>SUM(D53:D57)</f>
@@ -2011,11 +2086,11 @@
       </c>
       <c r="E58" s="11">
         <f>SUM(E53:E57)</f>
-        <v>41</v>
+        <v>39.5</v>
       </c>
       <c r="F58" s="11">
         <f>SUM(F53:F57)</f>
-        <v>184.5</v>
+        <v>177.75</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
@@ -2029,10 +2104,10 @@
       <c r="A60" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B60" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" s="11" t="s">
+      <c r="B60" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="31" t="s">
         <v>4</v>
       </c>
       <c r="D60" s="11" t="s">
@@ -2046,19 +2121,19 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="B61" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61" s="33">
+      <c r="A61" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61" s="29">
         <v>6</v>
       </c>
-      <c r="D61" s="33">
-        <v>3</v>
-      </c>
-      <c r="E61" s="33">
+      <c r="D61" s="29">
+        <v>3</v>
+      </c>
+      <c r="E61" s="29">
         <f>SUM(C61:D61)</f>
         <v>9</v>
       </c>
@@ -2068,93 +2143,93 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="35"/>
+      <c r="A62" s="32"/>
       <c r="B62" s="2" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C62" s="3">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="D62" s="3">
         <v>3</v>
       </c>
       <c r="E62" s="3">
         <f>SUM(C62:D62)</f>
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="F62" s="3">
         <f t="shared" ref="F62:F65" si="7">E62*4.5</f>
-        <v>36</v>
+        <v>33.75</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="35"/>
+      <c r="A63" s="32"/>
       <c r="B63" s="2" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C63" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D63" s="3">
         <v>3</v>
       </c>
       <c r="E63" s="3">
         <f>SUM(C63:D63)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F63" s="3">
         <f t="shared" si="7"/>
-        <v>40.5</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" s="35"/>
+      <c r="A64" s="32"/>
       <c r="B64" s="2" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="C64" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D64" s="3">
         <v>3</v>
       </c>
       <c r="E64" s="3">
         <f>SUM(C64:D64)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F64" s="3">
         <f t="shared" si="7"/>
-        <v>36</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" s="35"/>
-      <c r="B65" s="31" t="s">
-        <v>13</v>
+      <c r="A65" s="32"/>
+      <c r="B65" s="27" t="s">
+        <v>69</v>
       </c>
       <c r="C65" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D65" s="3">
         <v>3</v>
       </c>
       <c r="E65" s="5">
         <f>SUM(C65:D65)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F65" s="3">
         <f t="shared" si="7"/>
-        <v>40.5</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B66" s="36"/>
+      <c r="A66" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" s="33"/>
       <c r="C66" s="11">
         <f>SUM(C61:C65)</f>
-        <v>28</v>
+        <v>24.5</v>
       </c>
       <c r="D66" s="11">
         <f>SUM(D61:D65)</f>
@@ -2162,11 +2237,11 @@
       </c>
       <c r="E66" s="11">
         <f>SUM(E61:E65)</f>
-        <v>43</v>
+        <v>39.5</v>
       </c>
       <c r="F66" s="11">
         <f>SUM(F61:F65)</f>
-        <v>193.5</v>
+        <v>177.75</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
@@ -2180,10 +2255,10 @@
       <c r="A68" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B68" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" s="11" t="s">
+      <c r="B68" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="31" t="s">
         <v>4</v>
       </c>
       <c r="D68" s="11" t="s">
@@ -2197,19 +2272,19 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="B69" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C69" s="33">
+      <c r="A69" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C69" s="29">
         <v>6</v>
       </c>
-      <c r="D69" s="33">
-        <v>3</v>
-      </c>
-      <c r="E69" s="33">
+      <c r="D69" s="29">
+        <v>3</v>
+      </c>
+      <c r="E69" s="29">
         <f>SUM(C69:D69)</f>
         <v>9</v>
       </c>
@@ -2219,49 +2294,49 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" s="35"/>
+      <c r="A70" s="32"/>
       <c r="B70" s="2" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C70" s="3">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="D70" s="3">
         <v>3</v>
       </c>
       <c r="E70" s="3">
         <f>SUM(C70:D70)</f>
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="F70" s="3">
         <f t="shared" ref="F70:F73" si="8">E70*4.5</f>
-        <v>45</v>
+        <v>33.75</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" s="35"/>
+      <c r="A71" s="32"/>
       <c r="B71" s="2" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C71" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D71" s="3">
         <v>3</v>
       </c>
       <c r="E71" s="3">
         <f>SUM(C71:D71)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F71" s="3">
         <f t="shared" si="8"/>
-        <v>40.5</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" s="35"/>
+      <c r="A72" s="32"/>
       <c r="B72" s="2" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="C72" s="3">
         <v>6</v>
@@ -2279,33 +2354,33 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73" s="35"/>
-      <c r="B73" s="31" t="s">
-        <v>13</v>
+      <c r="A73" s="32"/>
+      <c r="B73" s="27" t="s">
+        <v>69</v>
       </c>
       <c r="C73" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D73" s="3">
         <v>3</v>
       </c>
       <c r="E73" s="5">
         <f>SUM(C73:D73)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F73" s="3">
         <f t="shared" si="8"/>
-        <v>40.5</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A74" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B74" s="36"/>
+      <c r="A74" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" s="33"/>
       <c r="C74" s="11">
         <f>SUM(C69:C73)</f>
-        <v>31</v>
+        <v>24.5</v>
       </c>
       <c r="D74" s="11">
         <f>SUM(D69:D73)</f>
@@ -2313,11 +2388,11 @@
       </c>
       <c r="E74" s="11">
         <f>SUM(E69:E73)</f>
-        <v>46</v>
+        <v>39.5</v>
       </c>
       <c r="F74" s="11">
         <f>SUM(F69:F73)</f>
-        <v>207</v>
+        <v>177.75</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
@@ -2328,55 +2403,55 @@
       <c r="E75" s="19"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A76" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="B76" s="40"/>
-      <c r="C76" s="40"/>
-      <c r="D76" s="40"/>
-      <c r="E76" s="40"/>
-      <c r="F76" s="34">
+      <c r="A76" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B76" s="37"/>
+      <c r="C76" s="37"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="30">
         <f>F10+F18+F26+F34+F42+F50+F58+F66+F74</f>
-        <v>1579.5</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A77" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="B77" s="40"/>
-      <c r="C77" s="40"/>
-      <c r="D77" s="40"/>
-      <c r="E77" s="40"/>
-      <c r="F77" s="34">
+      <c r="A77" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B77" s="37"/>
+      <c r="C77" s="37"/>
+      <c r="D77" s="37"/>
+      <c r="E77" s="37"/>
+      <c r="F77" s="30">
         <f>F76/8</f>
-        <v>197.4375</v>
+        <v>169.875</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A78" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="B78" s="40"/>
-      <c r="C78" s="40"/>
-      <c r="D78" s="40"/>
-      <c r="E78" s="40"/>
-      <c r="F78" s="34">
+      <c r="A78" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B78" s="37"/>
+      <c r="C78" s="37"/>
+      <c r="D78" s="37"/>
+      <c r="E78" s="37"/>
+      <c r="F78" s="30">
         <f>F77/5</f>
-        <v>39.487499999999997</v>
+        <v>33.975000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A79" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="B79" s="40"/>
-      <c r="C79" s="40"/>
-      <c r="D79" s="40"/>
-      <c r="E79" s="40"/>
-      <c r="F79" s="34">
+      <c r="A79" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B79" s="37"/>
+      <c r="C79" s="37"/>
+      <c r="D79" s="37"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="30">
         <f>F78/30</f>
-        <v>1.3162499999999999</v>
+        <v>1.1325000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2412,75 +2487,68 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF46CCB-4CE1-4B5F-870D-791BD81051F3}">
-  <dimension ref="A1:G39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D9B1D93-721F-4F9F-8117-3BD9B8894C8E}">
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="46"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="43"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C5" s="6">
         <v>14.17</v>
@@ -2492,20 +2560,13 @@
         <f>PRODUCT(C5:D5)</f>
         <v>425.1</v>
       </c>
-      <c r="F5" s="7">
-        <v>500</v>
-      </c>
-      <c r="G5" s="7">
-        <f>E5+F5</f>
-        <v>925.1</v>
-      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C6" s="6">
         <v>12.99</v>
@@ -2514,23 +2575,16 @@
         <v>17.2</v>
       </c>
       <c r="E6" s="7">
-        <f t="shared" ref="E6:E9" si="0">PRODUCT(C6:D6)</f>
+        <f>PRODUCT(C6:D6)</f>
         <v>223.428</v>
-      </c>
-      <c r="F6" s="7">
-        <v>500</v>
-      </c>
-      <c r="G6" s="7">
-        <f t="shared" ref="G6:G10" si="1">E6+F6</f>
-        <v>723.428</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C7" s="6">
         <v>15.39</v>
@@ -2539,23 +2593,16 @@
         <v>15</v>
       </c>
       <c r="E7" s="7">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(C7:D7)</f>
         <v>230.85000000000002</v>
-      </c>
-      <c r="F7" s="7">
-        <v>500</v>
-      </c>
-      <c r="G7" s="7">
-        <f t="shared" si="1"/>
-        <v>730.85</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C8" s="6">
         <v>15.39</v>
@@ -2564,23 +2611,16 @@
         <v>16</v>
       </c>
       <c r="E8" s="7">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(C8:D8)</f>
         <v>246.24</v>
-      </c>
-      <c r="F8" s="7">
-        <v>500</v>
-      </c>
-      <c r="G8" s="7">
-        <f t="shared" si="1"/>
-        <v>746.24</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C9" s="6">
         <v>15.39</v>
@@ -2589,27 +2629,20 @@
         <v>24</v>
       </c>
       <c r="E9" s="9">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(C9:D9)</f>
         <v>369.36</v>
       </c>
-      <c r="F9" s="9">
-        <v>500</v>
-      </c>
-      <c r="G9" s="7">
-        <f t="shared" si="1"/>
-        <v>869.36</v>
-      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="48"/>
+      <c r="A10" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="45"/>
       <c r="C10" s="12">
         <f>SUM(C5:C9)</f>
         <v>73.33</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="31">
         <f>SUM(D5:D9)</f>
         <v>102.2</v>
       </c>
@@ -2617,526 +2650,424 @@
         <f>SUM(E5:E9)</f>
         <v>1494.9780000000001</v>
       </c>
-      <c r="F10" s="12">
-        <f>SUM(F5:F9)</f>
-        <v>2500</v>
-      </c>
-      <c r="G10" s="12">
-        <f t="shared" si="1"/>
-        <v>3994.9780000000001</v>
-      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="15"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="15"/>
-    </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="16"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="15"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="43"/>
+      <c r="A12" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="10" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="6">
-        <v>14.17</v>
-      </c>
-      <c r="D16" s="3">
-        <v>30</v>
-      </c>
-      <c r="E16" s="7">
-        <f>PRODUCT(C16:D16)</f>
-        <v>425.1</v>
-      </c>
-      <c r="F16" s="7">
-        <v>500</v>
-      </c>
-      <c r="G16" s="7">
-        <f>E16+F16</f>
-        <v>925.1</v>
-      </c>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="6">
-        <v>25</v>
-      </c>
-      <c r="D17" s="3">
-        <v>17.2</v>
-      </c>
-      <c r="E17" s="7">
-        <f t="shared" ref="E17:E20" si="2">PRODUCT(C17:D17)</f>
-        <v>430</v>
-      </c>
-      <c r="F17" s="7">
-        <v>500</v>
-      </c>
-      <c r="G17" s="7">
-        <f t="shared" ref="G17:G21" si="3">E17+F17</f>
-        <v>930</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="6">
-        <v>40</v>
-      </c>
-      <c r="D18" s="3">
-        <v>15</v>
-      </c>
-      <c r="E18" s="7">
-        <f t="shared" si="2"/>
-        <v>600</v>
-      </c>
-      <c r="F18" s="7">
-        <v>500</v>
-      </c>
-      <c r="G18" s="7">
-        <f t="shared" si="3"/>
-        <v>1100</v>
+        <v>29</v>
+      </c>
+      <c r="C18" s="7">
+        <f>E5</f>
+        <v>425.1</v>
+      </c>
+      <c r="D18" s="7">
+        <f>C18*9</f>
+        <v>3825.9</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="6">
-        <v>25</v>
-      </c>
-      <c r="D19" s="3">
-        <v>16</v>
-      </c>
-      <c r="E19" s="7">
-        <f t="shared" si="2"/>
-        <v>400</v>
-      </c>
-      <c r="F19" s="7">
-        <v>500</v>
-      </c>
-      <c r="G19" s="7">
-        <f t="shared" si="3"/>
-        <v>900</v>
+        <v>30</v>
+      </c>
+      <c r="C19" s="7">
+        <f>E6</f>
+        <v>223.428</v>
+      </c>
+      <c r="D19" s="7">
+        <f>C19*9</f>
+        <v>2010.8519999999999</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="7">
+        <f>E7</f>
+        <v>230.85000000000002</v>
+      </c>
+      <c r="D20" s="7">
+        <f>C20*9</f>
+        <v>2077.65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="7">
+        <f>E8</f>
+        <v>246.24</v>
+      </c>
+      <c r="D21" s="7">
+        <f>C21*9</f>
+        <v>2216.16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="7">
+        <f>E9</f>
+        <v>369.36</v>
+      </c>
+      <c r="D22" s="7">
+        <f>C22*9</f>
+        <v>3324.2400000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="45"/>
+      <c r="C23" s="25">
+        <f>E10</f>
+        <v>1494.9780000000001</v>
+      </c>
+      <c r="D23" s="25">
+        <f>SUM(D18:D22)</f>
+        <v>13454.802</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="62"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+    </row>
+    <row r="25" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="15"/>
+    </row>
+    <row r="26" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="15"/>
+    </row>
+    <row r="27" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="60"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="17"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="19"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="6">
-        <v>30</v>
-      </c>
-      <c r="D20" s="5">
-        <v>24</v>
-      </c>
-      <c r="E20" s="9">
-        <f t="shared" si="2"/>
-        <v>720</v>
-      </c>
-      <c r="F20" s="9">
-        <v>500</v>
-      </c>
-      <c r="G20" s="7">
-        <f t="shared" si="3"/>
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="12">
-        <f>SUM(C16:C20)</f>
-        <v>134.17000000000002</v>
-      </c>
-      <c r="D21" s="11">
-        <f>SUM(D16:D20)</f>
-        <v>102.2</v>
-      </c>
-      <c r="E21" s="12">
-        <f>SUM(E16:E20)</f>
-        <v>2575.1</v>
-      </c>
-      <c r="F21" s="12">
-        <f>SUM(F16:F20)</f>
-        <v>2500</v>
-      </c>
-      <c r="G21" s="12">
-        <f t="shared" si="3"/>
-        <v>5075.1000000000004</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="15"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="15"/>
-    </row>
-    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="19"/>
-    </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="43"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="10" t="s">
+      <c r="B30" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="23">
-        <v>800</v>
-      </c>
-      <c r="C27" s="24">
-        <v>800</v>
-      </c>
-      <c r="D27" s="25">
-        <v>800</v>
-      </c>
-      <c r="E27" s="25">
-        <v>800</v>
-      </c>
-      <c r="F27" s="25">
-        <v>800</v>
-      </c>
-      <c r="G27" s="22">
-        <f>SUM(B27:F27)</f>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="23">
-        <v>200</v>
-      </c>
-      <c r="C28" s="24">
-        <v>190</v>
-      </c>
-      <c r="D28" s="25">
-        <v>190</v>
-      </c>
-      <c r="E28" s="25">
-        <v>180</v>
-      </c>
-      <c r="F28" s="25">
-        <v>205</v>
-      </c>
-      <c r="G28" s="22">
-        <f t="shared" ref="G28:G35" si="4">SUM(B28:F28)</f>
-        <v>965</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="23">
-        <v>50</v>
-      </c>
-      <c r="C29" s="24">
-        <v>55</v>
-      </c>
-      <c r="D29" s="25">
-        <v>58</v>
-      </c>
-      <c r="E29" s="25">
-        <v>65</v>
-      </c>
-      <c r="F29" s="25">
-        <v>71</v>
-      </c>
-      <c r="G29" s="22">
-        <f t="shared" si="4"/>
-        <v>299</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="23">
-        <v>350</v>
-      </c>
-      <c r="C30" s="24">
-        <v>350</v>
-      </c>
-      <c r="D30" s="25">
-        <v>350</v>
-      </c>
-      <c r="E30" s="25">
-        <v>350</v>
-      </c>
-      <c r="F30" s="25">
-        <v>350</v>
-      </c>
-      <c r="G30" s="22">
-        <f t="shared" si="4"/>
-        <v>1750</v>
+      <c r="C30" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="21" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B31" s="23">
-        <v>200</v>
-      </c>
-      <c r="C31" s="23">
-        <v>200</v>
-      </c>
-      <c r="D31" s="23">
-        <v>200</v>
-      </c>
-      <c r="E31" s="23">
-        <v>200</v>
-      </c>
-      <c r="F31" s="23">
-        <v>200</v>
-      </c>
-      <c r="G31" s="22">
-        <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>800</v>
+      </c>
+      <c r="C31" s="24">
+        <v>800</v>
+      </c>
+      <c r="D31" s="22">
+        <f>SUM(B31:C31)</f>
+        <v>1600</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="21" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B32" s="23">
+        <v>200</v>
+      </c>
+      <c r="C32" s="24">
+        <v>190</v>
+      </c>
+      <c r="D32" s="22">
+        <f>SUM(B32:C32)</f>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="23">
+        <v>50</v>
+      </c>
+      <c r="C33" s="24">
+        <v>55</v>
+      </c>
+      <c r="D33" s="22">
+        <f>SUM(B33:C33)</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="23">
+        <v>350</v>
+      </c>
+      <c r="C34" s="24">
+        <v>350</v>
+      </c>
+      <c r="D34" s="22">
+        <f>SUM(B34:C34)</f>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="23">
+        <v>200</v>
+      </c>
+      <c r="C35" s="23">
+        <v>200</v>
+      </c>
+      <c r="D35" s="22">
+        <f>SUM(B35:C35)</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="23">
         <v>0</v>
       </c>
-      <c r="C32" s="24">
-        <v>964</v>
-      </c>
-      <c r="D32" s="25">
-        <v>964</v>
-      </c>
-      <c r="E32" s="25">
-        <v>0</v>
-      </c>
-      <c r="F32" s="25">
-        <v>0</v>
-      </c>
-      <c r="G32" s="22">
-        <f t="shared" si="4"/>
-        <v>1928</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="23">
+      <c r="C36" s="24">
+        <v>50</v>
+      </c>
+      <c r="D36" s="22">
+        <f>SUM(B36:C36)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="23">
         <v>500</v>
       </c>
-      <c r="C33" s="23">
+      <c r="C37" s="23">
         <v>500</v>
       </c>
-      <c r="D33" s="23">
-        <v>500</v>
-      </c>
-      <c r="E33" s="23">
-        <v>500</v>
-      </c>
-      <c r="F33" s="23">
-        <v>500</v>
-      </c>
-      <c r="G33" s="22">
-        <f t="shared" si="4"/>
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7">
+      <c r="D37" s="22">
+        <f>SUM(B37:C37)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7">
         <v>400</v>
       </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="22">
-        <f t="shared" si="4"/>
+      <c r="D38" s="22">
+        <f>SUM(B38:C38)</f>
         <v>400</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="26">
-        <f>SUM(B27:B34)</f>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="25">
+        <f>SUM(B31:B38)</f>
         <v>2100</v>
       </c>
-      <c r="C35" s="26">
-        <f>SUM(C27:C34)</f>
-        <v>3059</v>
-      </c>
-      <c r="D35" s="26">
-        <f>SUM(D27:D34)</f>
-        <v>3462</v>
-      </c>
-      <c r="E35" s="26">
-        <f>SUM(E27:E34)</f>
-        <v>2095</v>
-      </c>
-      <c r="F35" s="26">
-        <f>SUM(F27:F34)</f>
-        <v>2126</v>
-      </c>
-      <c r="G35" s="22">
-        <f t="shared" si="4"/>
-        <v>12842</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" s="28"/>
-      <c r="C39" s="29">
-        <f>G10+G35</f>
-        <v>16836.977999999999</v>
+      <c r="C39" s="25">
+        <f>SUM(C31:C38)</f>
+        <v>2545</v>
+      </c>
+      <c r="D39" s="22">
+        <f>SUM(B39:C39)</f>
+        <v>4645</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="58"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="56"/>
+    </row>
+    <row r="41" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="55"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="52"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="52"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="16"/>
+    </row>
+    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="46" spans="1:4" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A46" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="50"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="48">
+        <f>D23+D39</f>
+        <v>18099.802</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A1:G1"/>
+  <mergeCells count="14">
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3147,8 +3078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF3E0EFC-BD46-446C-BDCC-CDE91B4CCB76}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3159,45 +3090,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="43"/>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="43"/>
+      <c r="A3" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="40"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>56</v>
+      <c r="A4" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D5" s="4">
         <v>20</v>
@@ -3205,13 +3136,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D6" s="4">
         <v>10</v>
@@ -3219,13 +3150,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D7" s="4">
         <v>5</v>
@@ -3233,13 +3164,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D8" s="4">
         <v>10</v>
@@ -3247,25 +3178,25 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D9" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
+      <c r="A11" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3517,16 +3448,16 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A4CD1A8-C444-497E-8CD6-CEE77A82450C}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="c10c5d6c-deda-459f-81ef-0d4d2ed53e28"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="51fe5757-3b12-4a7c-a4f6-18dbb0467356"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>